--- a/app/data/inputs/mascarpone/2021-04-15 План по варкам маскарпоне.xlsx
+++ b/app/data/inputs/mascarpone/2021-04-15 План по варкам маскарпоне.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/inputs/mascarpone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD26B35-983F-D34D-95B9-80F457964C02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D13B2F-A811-C045-8721-61B074CDEE48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="696">
   <si>
     <t>Отчет от</t>
   </si>
@@ -2288,7 +2288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2341,10 +2341,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2385,7 +2384,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="167">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -2459,54 +2506,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65C295"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED1C24"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3658,6 +3657,420 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -47048,10 +47461,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -47097,8 +47510,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="18" t="s">
         <v>176</v>
       </c>
@@ -47122,8 +47535,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="18" t="s">
         <v>176</v>
       </c>
@@ -47147,8 +47560,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="18" t="s">
         <v>174</v>
       </c>
@@ -47172,8 +47585,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="18" t="s">
         <v>177</v>
       </c>
@@ -47197,8 +47610,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="18" t="s">
         <v>173</v>
       </c>
@@ -47222,8 +47635,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="18" t="s">
         <v>662</v>
       </c>
@@ -47247,10 +47660,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>663</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>155</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -47293,8 +47706,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="18" t="s">
         <v>179</v>
       </c>
@@ -47318,10 +47731,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -47364,8 +47777,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="20" t="s">
         <v>174</v>
       </c>
@@ -47389,10 +47802,10 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>667</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>668</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -47435,8 +47848,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="21" t="s">
         <v>177</v>
       </c>
@@ -47460,8 +47873,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="21" t="s">
         <v>175</v>
       </c>
@@ -47485,10 +47898,10 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>670</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>668</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -47531,8 +47944,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="21" t="s">
         <v>176</v>
       </c>
@@ -47556,8 +47969,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="21" t="s">
         <v>182</v>
       </c>
@@ -47581,10 +47994,10 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="38" t="s">
         <v>672</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>154</v>
       </c>
       <c r="C29" s="22" t="s">
@@ -47627,8 +48040,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="22" t="s">
         <v>176</v>
       </c>
@@ -47652,8 +48065,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="40" t="s">
         <v>674</v>
       </c>
       <c r="C31" s="23" t="s">
@@ -47705,10 +48118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK320"/>
+  <dimension ref="A1:AMK316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47733,49 +48146,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>677</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>678</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>680</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>681</v>
       </c>
       <c r="J1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
     </row>
     <row r="2" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="12" t="s">
         <v>682</v>
       </c>
@@ -47788,13 +48201,13 @@
       <c r="N2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
-        <f t="shared" ref="A3:A32" ca="1" si="0">IF(J3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M3)))))</f>
+        <f t="shared" ref="A3:A28" ca="1" si="0">IF(J3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M3)))))</f>
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -47813,39 +48226,39 @@
         <v>160</v>
       </c>
       <c r="G3" s="14" t="str">
-        <f t="shared" ref="G3:G28" ca="1" si="1">IF(J3="","",(INDIRECT("N" &amp; ROW() - 1) - N3))</f>
+        <f t="shared" ref="G3:G25" ca="1" si="1">IF(J3="","",(INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
       <c r="H3" s="15" t="str">
-        <f t="shared" ref="H3:H28" ca="1" si="2">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ref="H3:H25" ca="1" si="2">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I3" s="15" t="str">
-        <f t="shared" ref="I3:I60" ca="1" si="3">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I3:I56" ca="1" si="3">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K28" ca="1" si="4">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
+        <f t="shared" ref="K3:K25" ca="1" si="4">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
         <v>160</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L28" ca="1" si="5">IF(J3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K3)))), 0)</f>
+        <f t="shared" ref="L3:L25" ca="1" si="5">IF(J3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K3)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M28" si="6">IF(J3="-",1,0)</f>
+        <f t="shared" ref="M3:M25" si="6">IF(J3="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N28" ca="1" si="7">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
+        <f t="shared" ref="N3:N25" ca="1" si="7">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="13" t="str">
-        <f t="shared" ref="R3:R28" ca="1" si="8">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R3:R25" ca="1" si="8">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S3" s="13" t="str">
-        <f t="shared" ref="S3:S60" ca="1" si="9">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S3:S56" ca="1" si="9">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -48756,9 +49169,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="34" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="A20" ca="1" si="10">IF(J20="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M20)))))</f>
         <v/>
       </c>
       <c r="B20" s="13" t="str">
@@ -48773,42 +49186,42 @@
         <v>686</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="G20" ca="1" si="11">IF(J20="","",(INDIRECT("N" &amp; ROW() - 1) - N20))</f>
         <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="H20" ca="1" si="12">IF(J20 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v>9450</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="I20" ca="1" si="13">IF(J20 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v>450</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="K20" s="1">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K20" s="34">
+        <f t="shared" ref="K20" ca="1" si="14">IF(J20 = "-", -INDIRECT("C" &amp; ROW() - 1),F20)</f>
         <v>-450</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="6"/>
+      <c r="L20" s="34">
+        <f t="shared" ref="L20" ca="1" si="15">IF(J20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K20)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="34">
+        <f t="shared" ref="M20" si="16">IF(J20="-",1,0)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="N20" s="34">
+        <f t="shared" ref="N20" ca="1" si="17">IF(L20 = 0, INDIRECT("N" &amp; ROW() - 1), L20)</f>
         <v>0</v>
       </c>
       <c r="R20" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="R20" ca="1" si="18">IF(Q20 = "", "", Q20 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S20" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="S20" ca="1" si="19">IF(J20="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -48818,16 +49231,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C21" s="29">
         <v>450</v>
       </c>
-      <c r="D21" s="29">
-        <v>6</v>
+      <c r="D21" s="29" t="s">
+        <v>695</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F21" s="28">
         <v>450</v>
@@ -48926,24 +49339,24 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>670</v>
-      </c>
-      <c r="C23" s="29">
-        <v>450</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="B23" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="C23" s="31">
+        <v>600</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>685</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="28">
-        <v>450</v>
+      <c r="E23" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="30">
+        <v>111</v>
       </c>
       <c r="G23" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -48959,7 +49372,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>450</v>
+        <v>111</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -48983,224 +49396,221 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="str">
+      <c r="A24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="B24" s="13" t="str">
-        <f>IF(E24="","",VLOOKUP(E24, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
+        <v>8</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="C24" s="31">
+        <v>600</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="30">
+        <v>489</v>
+      </c>
+      <c r="G24" s="14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="I24" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>489</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="13" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="S24" s="13" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f>IF(E25="","",VLOOKUP(E25, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
         <v>-</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C25" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="26" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H25" s="15">
         <f t="shared" ca="1" si="2"/>
         <v>83590920</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="J24" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-450</v>
-      </c>
-      <c r="L24" s="1">
+        <v>-600</v>
+      </c>
+      <c r="L25" s="1">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M25" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N25" s="1">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="R24" s="13" t="str">
+      <c r="R25" s="13" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="S24" s="13" t="str">
+      <c r="S25" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+    <row r="26" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="C25" s="31">
-        <v>600</v>
-      </c>
-      <c r="D25" s="31">
-        <v>5</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F25" s="30">
-        <v>111</v>
-      </c>
-      <c r="G25" s="14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H25" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="I25" s="15" t="str">
+      <c r="B26" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="C26" s="33">
+        <v>480</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="32">
+        <v>24</v>
+      </c>
+      <c r="G26" s="14" t="str">
+        <f t="shared" ref="G26:G56" ca="1" si="20">IF(J26="","",(INDIRECT("N" &amp; ROW() - 1) - N26))</f>
+        <v/>
+      </c>
+      <c r="H26" s="15" t="str">
+        <f t="shared" ref="H26:H56" ca="1" si="21">IF(J26 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I26" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="S25" s="13" t="str">
+      <c r="K26" s="1">
+        <f t="shared" ref="K26:K56" ca="1" si="22">IF(J26 = "-", -INDIRECT("C" &amp; ROW() - 1),F26)</f>
+        <v>24</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ref="L26:L56" ca="1" si="23">IF(J26 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K26)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26:M56" si="24">IF(J26="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" ref="N26:N56" ca="1" si="25">IF(L26 = 0, INDIRECT("N" &amp; ROW() - 1), L26)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="13" t="str">
+        <f t="shared" ref="R26:R56" ca="1" si="26">IF(Q26 = "", "", Q26 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+      <c r="S26" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+    <row r="27" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="C26" s="31">
-        <v>600</v>
-      </c>
-      <c r="D26" s="31">
-        <v>5</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" s="30">
-        <v>489</v>
-      </c>
-      <c r="G26" s="14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H26" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="I26" s="15" t="str">
+      <c r="B27" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="C27" s="33">
+        <v>480</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="32">
+        <v>456</v>
+      </c>
+      <c r="G27" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H27" s="15" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="I27" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>489</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="S26" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="B27" s="13" t="str">
-        <f>IF(E27="","",VLOOKUP(E27, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="G27" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>9450</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>686</v>
-      </c>
       <c r="K27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>-600</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>456</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R27" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S27" s="13" t="str">
@@ -49209,55 +49619,54 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32">
+      <c r="A28" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>672</v>
-      </c>
-      <c r="C28" s="33">
-        <v>600</v>
-      </c>
-      <c r="D28" s="33">
-        <v>6</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="F28" s="32">
-        <v>600</v>
-      </c>
-      <c r="G28" s="14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H28" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="I28" s="15" t="str">
+        <v/>
+      </c>
+      <c r="B28" s="13" t="str">
+        <f>IF(E28="","",VLOOKUP(E28, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
+        <v>-</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>480</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>686</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>600</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>-480</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R28" s="13" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S28" s="13" t="str">
@@ -49266,54 +49675,42 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
       <c r="B29" s="13" t="str">
         <f>IF(E29="","",VLOOKUP(E29, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>686</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="G29" s="14">
-        <f t="shared" ref="G29:G60" ca="1" si="10">IF(J29="","",(INDIRECT("N" &amp; ROW() - 1) - N29))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" ref="H29:H60" ca="1" si="11">IF(J29 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v>11340</v>
-      </c>
-      <c r="I29" s="15">
+      <c r="G29" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H29" s="15" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="I29" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>686</v>
+        <v/>
       </c>
       <c r="K29" s="1">
-        <f t="shared" ref="K29:K60" ca="1" si="12">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),F29)</f>
-        <v>-600</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" ref="L29:L60" ca="1" si="13">IF(J29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K29)))), 0)</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" ref="M29:M60" si="14">IF(J29="-",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="N29:N60" ca="1" si="15">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R29" s="13" t="str">
-        <f t="shared" ref="R29:R60" ca="1" si="16">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S29" s="13" t="str">
@@ -49322,31 +49719,18 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>665</v>
-      </c>
-      <c r="C30" s="35">
-        <v>480</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>685</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F30" s="34">
-        <v>24</v>
-      </c>
+      <c r="B30" s="13" t="str">
+        <f>IF(E30="","",VLOOKUP(E30, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="G30" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H30" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I30" s="15" t="str">
@@ -49354,23 +49738,23 @@
         <v/>
       </c>
       <c r="K30" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R30" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S30" s="13" t="str">
@@ -49379,31 +49763,18 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>665</v>
-      </c>
-      <c r="C31" s="35">
-        <v>480</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>685</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="F31" s="34">
-        <v>456</v>
-      </c>
+      <c r="B31" s="13" t="str">
+        <f>IF(E31="","",VLOOKUP(E31, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="G31" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H31" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I31" s="15" t="str">
@@ -49411,23 +49782,23 @@
         <v/>
       </c>
       <c r="K31" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>456</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R31" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S31" s="13" t="str">
@@ -49436,54 +49807,42 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
       <c r="B32" s="13" t="str">
         <f>IF(E32="","",VLOOKUP(E32, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
-        <v>-</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>686</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="G32" s="14">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>83590920</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="G32" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="H32" s="15" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="I32" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>686</v>
+        <v/>
       </c>
       <c r="K32" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>-480</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R32" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S32" s="13" t="str">
@@ -49499,11 +49858,11 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="G33" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H33" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I33" s="15" t="str">
@@ -49511,23 +49870,23 @@
         <v/>
       </c>
       <c r="K33" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R33" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S33" s="13" t="str">
@@ -49543,11 +49902,11 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="G34" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H34" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I34" s="15" t="str">
@@ -49555,23 +49914,23 @@
         <v/>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R34" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S34" s="13" t="str">
@@ -49587,11 +49946,11 @@
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="G35" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H35" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I35" s="15" t="str">
@@ -49599,23 +49958,23 @@
         <v/>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S35" s="13" t="str">
@@ -49631,11 +49990,11 @@
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="G36" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H36" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I36" s="15" t="str">
@@ -49643,23 +50002,23 @@
         <v/>
       </c>
       <c r="K36" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S36" s="13" t="str">
@@ -49675,11 +50034,11 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="G37" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H37" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I37" s="15" t="str">
@@ -49687,23 +50046,23 @@
         <v/>
       </c>
       <c r="K37" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S37" s="13" t="str">
@@ -49719,11 +50078,11 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="G38" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H38" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I38" s="15" t="str">
@@ -49731,23 +50090,23 @@
         <v/>
       </c>
       <c r="K38" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S38" s="13" t="str">
@@ -49763,11 +50122,11 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="G39" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H39" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I39" s="15" t="str">
@@ -49775,23 +50134,23 @@
         <v/>
       </c>
       <c r="K39" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S39" s="13" t="str">
@@ -49807,11 +50166,11 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="G40" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H40" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I40" s="15" t="str">
@@ -49819,23 +50178,23 @@
         <v/>
       </c>
       <c r="K40" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R40" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S40" s="13" t="str">
@@ -49851,11 +50210,11 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="G41" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H41" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I41" s="15" t="str">
@@ -49863,23 +50222,23 @@
         <v/>
       </c>
       <c r="K41" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R41" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S41" s="13" t="str">
@@ -49895,11 +50254,11 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="G42" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H42" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I42" s="15" t="str">
@@ -49907,23 +50266,23 @@
         <v/>
       </c>
       <c r="K42" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R42" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S42" s="13" t="str">
@@ -49939,11 +50298,11 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="G43" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H43" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I43" s="15" t="str">
@@ -49951,23 +50310,23 @@
         <v/>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R43" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S43" s="13" t="str">
@@ -49983,11 +50342,11 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="G44" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H44" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I44" s="15" t="str">
@@ -49995,23 +50354,23 @@
         <v/>
       </c>
       <c r="K44" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R44" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S44" s="13" t="str">
@@ -50027,11 +50386,11 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="G45" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H45" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I45" s="15" t="str">
@@ -50039,23 +50398,23 @@
         <v/>
       </c>
       <c r="K45" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R45" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S45" s="13" t="str">
@@ -50071,11 +50430,11 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="G46" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H46" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I46" s="15" t="str">
@@ -50083,23 +50442,23 @@
         <v/>
       </c>
       <c r="K46" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R46" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S46" s="13" t="str">
@@ -50115,11 +50474,11 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="G47" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H47" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I47" s="15" t="str">
@@ -50127,23 +50486,23 @@
         <v/>
       </c>
       <c r="K47" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R47" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S47" s="13" t="str">
@@ -50159,11 +50518,11 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="G48" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H48" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I48" s="15" t="str">
@@ -50171,23 +50530,23 @@
         <v/>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R48" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S48" s="13" t="str">
@@ -50203,11 +50562,11 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="G49" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H49" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I49" s="15" t="str">
@@ -50215,23 +50574,23 @@
         <v/>
       </c>
       <c r="K49" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R49" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S49" s="13" t="str">
@@ -50247,11 +50606,11 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="G50" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H50" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I50" s="15" t="str">
@@ -50259,23 +50618,23 @@
         <v/>
       </c>
       <c r="K50" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R50" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S50" s="13" t="str">
@@ -50291,11 +50650,11 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="G51" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H51" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I51" s="15" t="str">
@@ -50303,23 +50662,23 @@
         <v/>
       </c>
       <c r="K51" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R51" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S51" s="13" t="str">
@@ -50335,11 +50694,11 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="G52" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H52" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I52" s="15" t="str">
@@ -50347,23 +50706,23 @@
         <v/>
       </c>
       <c r="K52" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R52" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S52" s="13" t="str">
@@ -50379,11 +50738,11 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="G53" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H53" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I53" s="15" t="str">
@@ -50391,23 +50750,23 @@
         <v/>
       </c>
       <c r="K53" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R53" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S53" s="13" t="str">
@@ -50423,11 +50782,11 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="G54" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H54" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I54" s="15" t="str">
@@ -50435,23 +50794,23 @@
         <v/>
       </c>
       <c r="K54" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R54" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S54" s="13" t="str">
@@ -50467,11 +50826,11 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="G55" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H55" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I55" s="15" t="str">
@@ -50479,23 +50838,23 @@
         <v/>
       </c>
       <c r="K55" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R55" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S55" s="13" t="str">
@@ -50511,11 +50870,11 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="G56" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="H56" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="I56" s="15" t="str">
@@ -50523,23 +50882,23 @@
         <v/>
       </c>
       <c r="K56" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="R56" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S56" s="13" t="str">
@@ -50555,39 +50914,39 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="G57" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="G57:G88" ca="1" si="27">IF(J57="","",(INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
       <c r="H57" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="H57:H88" ca="1" si="28">IF(J57 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I57" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="I57:I120" ca="1" si="29">IF(J57 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K57" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="K57:K88" ca="1" si="30">IF(J57 = "-", -INDIRECT("C" &amp; ROW() - 1),F57)</f>
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="L57:L64" ca="1" si="31">IF(J57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K57)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M57:M88" si="32">IF(J57="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="N57:N88" ca="1" si="33">IF(L57 = 0, INDIRECT("N" &amp; ROW() - 1), L57)</f>
         <v>0</v>
       </c>
       <c r="R57" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="R57:R88" ca="1" si="34">IF(Q57 = "", "", Q57 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S57" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="S57:S120" ca="1" si="35">IF(J57="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -50599,39 +50958,39 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="G58" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H58" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I58" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K58" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R58" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S58" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50643,39 +51002,39 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="G59" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H59" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I59" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K59" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R59" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S59" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50687,39 +51046,39 @@
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="G60" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H60" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I60" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K60" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R60" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S60" s="13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50731,39 +51090,39 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="G61" s="14" t="str">
-        <f t="shared" ref="G61:G92" ca="1" si="17">IF(J61="","",(INDIRECT("N" &amp; ROW() - 1) - N61))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H61" s="15" t="str">
-        <f t="shared" ref="H61:H92" ca="1" si="18">IF(J61 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I61" s="15" t="str">
-        <f t="shared" ref="I61:I124" ca="1" si="19">IF(J61 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K61" s="1">
-        <f t="shared" ref="K61:K92" ca="1" si="20">IF(J61 = "-", -INDIRECT("C" &amp; ROW() - 1),F61)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" ref="L61:L68" ca="1" si="21">IF(J61 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K61)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K61)))), 0)</f>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" ref="M61:M92" si="22">IF(J61="-",1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" ref="N61:N92" ca="1" si="23">IF(L61 = 0, INDIRECT("N" &amp; ROW() - 1), L61)</f>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R61" s="13" t="str">
-        <f t="shared" ref="R61:R92" ca="1" si="24">IF(Q61 = "", "", Q61 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S61" s="13" t="str">
-        <f t="shared" ref="S61:S124" ca="1" si="25">IF(J61="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50775,39 +51134,39 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="G62" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H62" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I62" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K62" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R62" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S62" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50819,39 +51178,39 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="G63" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H63" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I63" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K63" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R63" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S63" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50863,39 +51222,39 @@
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="G64" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H64" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I64" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K64" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R64" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S64" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50907,39 +51266,39 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="G65" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H65" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I65" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K65" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="L65:L90" ca="1" si="36">IF(J65="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K65))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K65)))),0)</f>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R65" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S65" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50951,39 +51310,39 @@
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="G66" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H66" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I66" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K66" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R66" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S66" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -50995,39 +51354,39 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="G67" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H67" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I67" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R67" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S67" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51039,39 +51398,39 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="G68" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H68" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I68" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K68" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R68" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S68" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51083,39 +51442,39 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="G69" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H69" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I69" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K69" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" ref="L69:L94" ca="1" si="26">IF(J69="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K69))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K69)))),0)</f>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R69" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S69" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51127,39 +51486,39 @@
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="G70" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H70" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I70" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K70" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R70" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S70" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51171,39 +51530,39 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="G71" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H71" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I71" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K71" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R71" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S71" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51215,39 +51574,39 @@
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="G72" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H72" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I72" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K72" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R72" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S72" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51259,39 +51618,39 @@
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="G73" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H73" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I73" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K73" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R73" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S73" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51303,39 +51662,39 @@
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="G74" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H74" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I74" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K74" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R74" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S74" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51347,39 +51706,39 @@
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="G75" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H75" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I75" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K75" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R75" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S75" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51391,39 +51750,39 @@
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="G76" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H76" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I76" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K76" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R76" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S76" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51435,39 +51794,39 @@
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="G77" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H77" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I77" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K77" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R77" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S77" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51479,39 +51838,39 @@
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="G78" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H78" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I78" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R78" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S78" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51523,39 +51882,39 @@
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="G79" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H79" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I79" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K79" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R79" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S79" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51567,39 +51926,39 @@
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="G80" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H80" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I80" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R80" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S80" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51611,39 +51970,39 @@
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="G81" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H81" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I81" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R81" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S81" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51655,39 +52014,39 @@
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="G82" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H82" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I82" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K82" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R82" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S82" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51699,39 +52058,39 @@
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="G83" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H83" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I83" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R83" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S83" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51743,39 +52102,39 @@
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="G84" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H84" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I84" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R84" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S84" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51787,39 +52146,39 @@
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="G85" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H85" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I85" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K85" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R85" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S85" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51831,39 +52190,39 @@
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="G86" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H86" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I86" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K86" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R86" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S86" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51875,39 +52234,39 @@
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="G87" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H87" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I87" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R87" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S87" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51919,39 +52278,39 @@
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="G88" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="H88" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="I88" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K88" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="R88" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S88" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -51963,39 +52322,39 @@
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="G89" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ref="G89:G120" ca="1" si="37">IF(J89="","",(INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
       <c r="H89" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="H89:H120" ca="1" si="38">IF(J89 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I89" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K89" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="K89:K113" ca="1" si="39">IF(J89 = "-", -INDIRECT("C" &amp; ROW() - 1),F89)</f>
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="M89:M113" si="40">IF(J89="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="N89:N113" ca="1" si="41">IF(L89 = 0, INDIRECT("N" &amp; ROW() - 1), L89)</f>
         <v>0</v>
       </c>
       <c r="R89" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="R89:R120" ca="1" si="42">IF(Q89 = "", "", Q89 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S89" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52007,39 +52366,39 @@
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="G90" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H90" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I90" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K90" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R90" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S90" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52051,39 +52410,39 @@
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="G91" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H91" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I91" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K91" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="L91:L113" ca="1" si="43">IF(J91 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K91)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K91)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R91" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S91" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52095,39 +52454,39 @@
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="G92" s="14" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H92" s="15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I92" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K92" s="1">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R92" s="13" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S92" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52139,39 +52498,39 @@
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="G93" s="14" t="str">
-        <f t="shared" ref="G93:G124" ca="1" si="27">IF(J93="","",(INDIRECT("N" &amp; ROW() - 1) - N93))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H93" s="15" t="str">
-        <f t="shared" ref="H93:H124" ca="1" si="28">IF(J93 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I93" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K93" s="1">
-        <f t="shared" ref="K93:K117" ca="1" si="29">IF(J93 = "-", -INDIRECT("C" &amp; ROW() - 1),F93)</f>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" ref="M93:M117" si="30">IF(J93="-",1,0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" ref="N93:N117" ca="1" si="31">IF(L93 = 0, INDIRECT("N" &amp; ROW() - 1), L93)</f>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R93" s="13" t="str">
-        <f t="shared" ref="R93:R124" ca="1" si="32">IF(Q93 = "", "", Q93 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S93" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52183,39 +52542,39 @@
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="G94" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H94" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I94" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K94" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R94" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S94" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52227,39 +52586,39 @@
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="G95" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H95" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I95" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K95" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" ref="L95:L117" ca="1" si="33">IF(J95 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K95)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K95)))), 0)</f>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R95" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S95" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52271,39 +52630,39 @@
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="G96" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H96" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I96" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K96" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R96" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S96" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52315,39 +52674,39 @@
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="G97" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H97" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I97" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K97" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R97" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S97" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52359,39 +52718,39 @@
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="G98" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H98" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I98" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K98" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R98" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S98" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52403,39 +52762,39 @@
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="G99" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H99" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I99" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K99" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R99" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S99" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52447,39 +52806,39 @@
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="G100" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H100" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I100" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K100" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R100" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S100" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52491,39 +52850,39 @@
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="G101" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H101" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I101" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K101" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R101" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S101" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52535,39 +52894,39 @@
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="G102" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H102" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I102" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K102" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R102" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S102" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52579,39 +52938,39 @@
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="G103" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H103" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I103" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K103" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R103" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S103" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52623,39 +52982,39 @@
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="G104" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H104" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I104" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K104" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R104" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S104" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52667,39 +53026,39 @@
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="G105" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H105" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I105" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K105" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R105" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S105" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52711,39 +53070,39 @@
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="G106" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H106" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I106" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K106" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R106" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S106" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52755,39 +53114,39 @@
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="G107" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H107" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I107" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K107" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R107" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S107" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52799,39 +53158,39 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="G108" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H108" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I108" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K108" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R108" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S108" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52843,39 +53202,39 @@
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="G109" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H109" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I109" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K109" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R109" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S109" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52887,39 +53246,39 @@
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="G110" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H110" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I110" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K110" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R110" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S110" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52931,39 +53290,39 @@
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="G111" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H111" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I111" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K111" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L111" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R111" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S111" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -52975,39 +53334,39 @@
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="G112" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H112" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I112" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K112" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R112" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S112" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53019,39 +53378,39 @@
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="G113" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H113" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I113" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K113" s="1">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="L113" s="1">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
       <c r="R113" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S113" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53063,39 +53422,23 @@
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="G114" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H114" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I114" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K114" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="1">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N114" s="1">
-        <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="R114" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S114" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53107,39 +53450,23 @@
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="G115" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H115" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I115" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K115" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="1">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N115" s="1">
-        <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="R115" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S115" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53151,39 +53478,23 @@
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="G116" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H116" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I116" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K116" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="1">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N116" s="1">
-        <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="R116" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S116" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53195,39 +53506,23 @@
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="G117" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H117" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I117" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K117" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="1">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N117" s="1">
-        <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="R117" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S117" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53239,23 +53534,23 @@
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="G118" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H118" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I118" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="R118" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S118" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53267,23 +53562,23 @@
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="G119" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H119" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I119" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="R119" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S119" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53295,23 +53590,23 @@
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="G120" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="H120" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="I120" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="R120" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="S120" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -53323,23 +53618,23 @@
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="G121" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ref="G121:G152" ca="1" si="44">IF(J121="","",(INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
       <c r="H121" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ref="H121:H155" ca="1" si="45">IF(J121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I121" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="I121:I184" ca="1" si="46">IF(J121 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R121" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="R121:R152" ca="1" si="47">IF(Q121 = "", "", Q121 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S121" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="S121:S184" ca="1" si="48">IF(J121="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -53351,23 +53646,23 @@
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="G122" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H122" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I122" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R122" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S122" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53379,23 +53674,23 @@
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="G123" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H123" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I123" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R123" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S123" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53407,23 +53702,23 @@
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="G124" s="14" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H124" s="15" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I124" s="15" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R124" s="13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S124" s="13" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53435,23 +53730,23 @@
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="G125" s="14" t="str">
-        <f t="shared" ref="G125:G156" ca="1" si="34">IF(J125="","",(INDIRECT("N" &amp; ROW() - 1) - N125))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H125" s="15" t="str">
-        <f t="shared" ref="H125:H159" ca="1" si="35">IF(J125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I125" s="15" t="str">
-        <f t="shared" ref="I125:I188" ca="1" si="36">IF(J125 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R125" s="13" t="str">
-        <f t="shared" ref="R125:R156" ca="1" si="37">IF(Q125 = "", "", Q125 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S125" s="13" t="str">
-        <f t="shared" ref="S125:S188" ca="1" si="38">IF(J125="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53463,23 +53758,23 @@
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="G126" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H126" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I126" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R126" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S126" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53491,23 +53786,23 @@
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="G127" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H127" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I127" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R127" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S127" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53519,23 +53814,23 @@
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="G128" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H128" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I128" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R128" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S128" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53547,23 +53842,23 @@
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="G129" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H129" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I129" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R129" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S129" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53575,23 +53870,23 @@
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="G130" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H130" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I130" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R130" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S130" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53603,23 +53898,23 @@
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="G131" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H131" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I131" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R131" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S131" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53631,23 +53926,23 @@
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="G132" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H132" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I132" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R132" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S132" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53659,23 +53954,23 @@
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="G133" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H133" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I133" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R133" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S133" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53687,23 +53982,23 @@
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="G134" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H134" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I134" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R134" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S134" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53715,23 +54010,23 @@
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="G135" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H135" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I135" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R135" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S135" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53743,23 +54038,23 @@
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="G136" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H136" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I136" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R136" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S136" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53771,23 +54066,23 @@
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="G137" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H137" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I137" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R137" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S137" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53799,23 +54094,23 @@
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="G138" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H138" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I138" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R138" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S138" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53827,23 +54122,23 @@
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="G139" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H139" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I139" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R139" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S139" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53855,23 +54150,23 @@
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="G140" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H140" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I140" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R140" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S140" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53883,23 +54178,23 @@
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="G141" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H141" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I141" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R141" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S141" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53911,23 +54206,23 @@
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="G142" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H142" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I142" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R142" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S142" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53939,23 +54234,23 @@
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="G143" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H143" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I143" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R143" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S143" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53967,23 +54262,23 @@
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="G144" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H144" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I144" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R144" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S144" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -53995,135 +54290,123 @@
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="G145" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H145" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I145" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R145" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S145" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="13" t="str">
-        <f>IF(E146="","",VLOOKUP(E146, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
+      <c r="B146" s="13"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="G146" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H146" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I146" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R146" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S146" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="13" t="str">
-        <f>IF(E147="","",VLOOKUP(E147, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
+      <c r="B147" s="13"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="G147" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H147" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I147" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R147" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S147" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="13" t="str">
-        <f>IF(E148="","",VLOOKUP(E148, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
+      <c r="B148" s="13"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="G148" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H148" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I148" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R148" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S148" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="13" t="str">
-        <f>IF(E149="","",VLOOKUP(E149, 'SKU Маскарпоне'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
+      <c r="B149" s="13"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="G149" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H149" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I149" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R149" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S149" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54132,23 +54415,23 @@
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="G150" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H150" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I150" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R150" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S150" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54157,23 +54440,23 @@
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="G151" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H151" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I151" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R151" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S151" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54182,23 +54465,23 @@
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="G152" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="H152" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I152" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R152" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S152" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54207,23 +54490,23 @@
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="G153" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ref="G153:G187" ca="1" si="49">IF(J153="","",(INDIRECT("N" &amp; ROW() - 1) - N153))</f>
         <v/>
       </c>
       <c r="H153" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I153" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R153" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ref="R153:R174" ca="1" si="50">IF(Q153 = "", "", Q153 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S153" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54232,23 +54515,23 @@
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="G154" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="H154" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I154" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R154" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S154" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54257,23 +54540,23 @@
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="G155" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="H155" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="I155" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R155" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S155" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54282,23 +54565,19 @@
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="G156" s="14" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="H156" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I156" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R156" s="13" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S156" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54307,23 +54586,19 @@
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="G157" s="14" t="str">
-        <f t="shared" ref="G157:G191" ca="1" si="39">IF(J157="","",(INDIRECT("N" &amp; ROW() - 1) - N157))</f>
-        <v/>
-      </c>
-      <c r="H157" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I157" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R157" s="13" t="str">
-        <f t="shared" ref="R157:R178" ca="1" si="40">IF(Q157 = "", "", Q157 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S157" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54332,23 +54607,19 @@
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="G158" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="H158" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I158" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R158" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S158" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54357,23 +54628,19 @@
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="G159" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="H159" s="15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I159" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R159" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S159" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54382,19 +54649,19 @@
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="G160" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I160" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R160" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S160" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54403,19 +54670,19 @@
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="G161" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I161" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R161" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S161" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54424,19 +54691,19 @@
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="G162" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I162" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R162" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S162" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54445,19 +54712,19 @@
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="G163" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I163" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R163" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S163" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54466,19 +54733,19 @@
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="G164" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I164" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R164" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S164" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54487,19 +54754,19 @@
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="G165" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I165" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R165" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S165" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54508,19 +54775,19 @@
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="G166" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I166" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R166" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S166" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54529,19 +54796,19 @@
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="G167" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I167" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R167" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S167" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54550,19 +54817,19 @@
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="G168" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I168" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R168" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S168" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54571,19 +54838,19 @@
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="G169" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I169" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R169" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S169" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54592,19 +54859,19 @@
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="G170" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I170" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R170" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S170" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54613,19 +54880,19 @@
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="G171" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I171" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R171" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S171" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54634,19 +54901,19 @@
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="G172" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I172" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R172" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S172" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54655,19 +54922,19 @@
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="G173" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I173" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R173" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S173" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54676,19 +54943,19 @@
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="G174" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I174" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R174" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="S174" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54697,19 +54964,16 @@
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="G175" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I175" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R175" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="R175" s="13"/>
       <c r="S175" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54718,19 +54982,16 @@
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="G176" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I176" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R176" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="R176" s="13"/>
       <c r="S176" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54739,19 +55000,16 @@
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="G177" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I177" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R177" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="R177" s="13"/>
       <c r="S177" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54760,19 +55018,16 @@
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="G178" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I178" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R178" s="13" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="R178" s="13"/>
       <c r="S178" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54781,16 +55036,16 @@
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="G179" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I179" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R179" s="13"/>
       <c r="S179" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54799,16 +55054,16 @@
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="G180" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I180" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R180" s="13"/>
       <c r="S180" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54817,16 +55072,16 @@
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="G181" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I181" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R181" s="13"/>
       <c r="S181" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54835,16 +55090,16 @@
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="G182" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I182" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R182" s="13"/>
       <c r="S182" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54853,16 +55108,16 @@
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="G183" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I183" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R183" s="13"/>
       <c r="S183" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54871,16 +55126,16 @@
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="G184" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I184" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R184" s="13"/>
       <c r="S184" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -54889,16 +55144,16 @@
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="G185" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I185" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="I185:I248" ca="1" si="51">IF(J185 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R185" s="13"/>
       <c r="S185" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ref="S185:S219" ca="1" si="52">IF(J185="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -54907,16 +55162,16 @@
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="G186" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I186" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R186" s="13"/>
       <c r="S186" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -54925,16 +55180,16 @@
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="G187" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="I187" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R187" s="13"/>
       <c r="S187" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -54942,17 +55197,13 @@
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
-      <c r="G188" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
       <c r="I188" s="15" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R188" s="13"/>
       <c r="S188" s="13" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -54960,17 +55211,13 @@
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
-      <c r="G189" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
       <c r="I189" s="15" t="str">
-        <f t="shared" ref="I189:I252" ca="1" si="41">IF(J189 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R189" s="13"/>
       <c r="S189" s="13" t="str">
-        <f t="shared" ref="S189:S223" ca="1" si="42">IF(J189="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -54978,17 +55225,13 @@
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
-      <c r="G190" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
       <c r="I190" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R190" s="13"/>
       <c r="S190" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -54996,17 +55239,13 @@
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
-      <c r="G191" s="14" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
       <c r="I191" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R191" s="13"/>
       <c r="S191" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55015,12 +55254,12 @@
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="I192" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R192" s="13"/>
       <c r="S192" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55029,12 +55268,12 @@
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="I193" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R193" s="13"/>
       <c r="S193" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55043,12 +55282,12 @@
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="I194" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R194" s="13"/>
       <c r="S194" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55057,12 +55296,12 @@
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="I195" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R195" s="13"/>
       <c r="S195" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55071,12 +55310,12 @@
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="I196" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R196" s="13"/>
       <c r="S196" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55085,12 +55324,12 @@
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="I197" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R197" s="13"/>
       <c r="S197" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55099,12 +55338,12 @@
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="I198" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R198" s="13"/>
       <c r="S198" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55113,12 +55352,12 @@
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="I199" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R199" s="13"/>
       <c r="S199" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55127,12 +55366,12 @@
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="I200" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R200" s="13"/>
       <c r="S200" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55141,12 +55380,12 @@
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="I201" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R201" s="13"/>
       <c r="S201" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55155,12 +55394,12 @@
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
       <c r="I202" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R202" s="13"/>
       <c r="S202" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55169,12 +55408,12 @@
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="I203" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R203" s="13"/>
       <c r="S203" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55183,12 +55422,12 @@
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="I204" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R204" s="13"/>
       <c r="S204" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55197,12 +55436,12 @@
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="I205" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R205" s="13"/>
       <c r="S205" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55211,12 +55450,12 @@
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="I206" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R206" s="13"/>
       <c r="S206" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55225,12 +55464,12 @@
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="I207" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R207" s="13"/>
       <c r="S207" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55239,12 +55478,12 @@
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="I208" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R208" s="13"/>
       <c r="S208" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55253,12 +55492,12 @@
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="I209" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R209" s="13"/>
       <c r="S209" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55267,12 +55506,12 @@
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="I210" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R210" s="13"/>
       <c r="S210" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55281,12 +55520,12 @@
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
       <c r="I211" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R211" s="13"/>
       <c r="S211" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55295,12 +55534,12 @@
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="I212" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R212" s="13"/>
       <c r="S212" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55309,12 +55548,12 @@
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="I213" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R213" s="13"/>
       <c r="S213" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55323,12 +55562,12 @@
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="I214" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R214" s="13"/>
       <c r="S214" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55337,12 +55576,12 @@
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="I215" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R215" s="13"/>
       <c r="S215" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55351,12 +55590,12 @@
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="I216" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R216" s="13"/>
       <c r="S216" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55365,12 +55604,12 @@
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="I217" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R217" s="13"/>
       <c r="S217" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55379,12 +55618,12 @@
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="I218" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R218" s="13"/>
       <c r="S218" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55393,12 +55632,12 @@
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="I219" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R219" s="13"/>
       <c r="S219" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
     </row>
@@ -55407,63 +55646,51 @@
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="I220" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R220" s="13"/>
-      <c r="S220" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
+      <c r="S220" s="13"/>
     </row>
     <row r="221" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="I221" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R221" s="13"/>
-      <c r="S221" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
+      <c r="S221" s="13"/>
     </row>
     <row r="222" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="I222" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R222" s="13"/>
-      <c r="S222" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
+      <c r="S222" s="13"/>
     </row>
     <row r="223" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="I223" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R223" s="13"/>
-      <c r="S223" s="13" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
+      <c r="S223" s="13"/>
     </row>
     <row r="224" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="I224" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R224" s="13"/>
@@ -55474,7 +55701,7 @@
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="I225" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R225" s="13"/>
@@ -55485,7 +55712,7 @@
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="I226" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R226" s="13"/>
@@ -55496,7 +55723,7 @@
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="I227" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R227" s="13"/>
@@ -55507,7 +55734,7 @@
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
       <c r="I228" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R228" s="13"/>
@@ -55518,7 +55745,7 @@
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
       <c r="I229" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R229" s="13"/>
@@ -55529,7 +55756,7 @@
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
       <c r="I230" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R230" s="13"/>
@@ -55540,7 +55767,7 @@
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
       <c r="I231" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R231" s="13"/>
@@ -55551,7 +55778,7 @@
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
       <c r="I232" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R232" s="13"/>
@@ -55562,7 +55789,7 @@
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
       <c r="I233" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R233" s="13"/>
@@ -55573,7 +55800,7 @@
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
       <c r="I234" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R234" s="13"/>
@@ -55584,7 +55811,7 @@
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="I235" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R235" s="13"/>
@@ -55595,7 +55822,7 @@
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
       <c r="I236" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R236" s="13"/>
@@ -55606,7 +55833,7 @@
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="I237" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R237" s="13"/>
@@ -55617,7 +55844,7 @@
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
       <c r="I238" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R238" s="13"/>
@@ -55628,7 +55855,7 @@
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="I239" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R239" s="13"/>
@@ -55639,7 +55866,7 @@
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
       <c r="I240" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R240" s="13"/>
@@ -55650,7 +55877,7 @@
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="I241" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R241" s="13"/>
@@ -55661,7 +55888,7 @@
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="I242" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R242" s="13"/>
@@ -55672,7 +55899,7 @@
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="I243" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R243" s="13"/>
@@ -55683,7 +55910,7 @@
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="I244" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R244" s="13"/>
@@ -55694,7 +55921,7 @@
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="I245" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R245" s="13"/>
@@ -55705,7 +55932,7 @@
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
       <c r="I246" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R246" s="13"/>
@@ -55716,7 +55943,7 @@
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="I247" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R247" s="13"/>
@@ -55727,7 +55954,7 @@
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
       <c r="I248" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R248" s="13"/>
@@ -55738,7 +55965,7 @@
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="I249" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ref="I249:I312" ca="1" si="53">IF(J249 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R249" s="13"/>
@@ -55749,7 +55976,7 @@
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="I250" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R250" s="13"/>
@@ -55760,7 +55987,7 @@
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="I251" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R251" s="13"/>
@@ -55771,7 +55998,7 @@
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
       <c r="I252" s="15" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R252" s="13"/>
@@ -55782,7 +56009,7 @@
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="I253" s="15" t="str">
-        <f t="shared" ref="I253:I316" ca="1" si="43">IF(J253 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R253" s="13"/>
@@ -55793,7 +56020,7 @@
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
       <c r="I254" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R254" s="13"/>
@@ -55804,7 +56031,7 @@
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="I255" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R255" s="13"/>
@@ -55815,7 +56042,7 @@
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
       <c r="I256" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R256" s="13"/>
@@ -55826,7 +56053,7 @@
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
       <c r="I257" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="R257" s="13"/>
@@ -55837,51 +56064,43 @@
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
       <c r="I258" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="R258" s="13"/>
-      <c r="S258" s="13"/>
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
     </row>
     <row r="259" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
       <c r="I259" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="R259" s="13"/>
-      <c r="S259" s="13"/>
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
     </row>
     <row r="260" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
       <c r="I260" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="R260" s="13"/>
-      <c r="S260" s="13"/>
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
     </row>
     <row r="261" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="I261" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="R261" s="13"/>
-      <c r="S261" s="13"/>
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
     </row>
     <row r="262" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
       <c r="I262" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55890,7 +56109,7 @@
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
       <c r="I263" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55899,7 +56118,7 @@
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
       <c r="I264" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55908,7 +56127,7 @@
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
       <c r="I265" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55917,7 +56136,7 @@
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
       <c r="I266" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55926,7 +56145,7 @@
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="I267" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55935,7 +56154,7 @@
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
       <c r="I268" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55944,7 +56163,7 @@
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
       <c r="I269" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55953,7 +56172,7 @@
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
       <c r="I270" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55962,7 +56181,7 @@
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
       <c r="I271" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55971,7 +56190,7 @@
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
       <c r="I272" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55980,7 +56199,7 @@
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="I273" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55989,7 +56208,7 @@
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
       <c r="I274" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -55998,7 +56217,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="I275" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56007,7 +56226,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
       <c r="I276" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56016,7 +56235,7 @@
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
       <c r="I277" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56025,7 +56244,7 @@
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
       <c r="I278" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56034,7 +56253,7 @@
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="I279" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56043,7 +56262,7 @@
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
       <c r="I280" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56052,7 +56271,7 @@
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="I281" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56061,7 +56280,7 @@
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="I282" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56070,7 +56289,7 @@
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="I283" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56079,7 +56298,7 @@
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="I284" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56088,7 +56307,7 @@
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="I285" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56097,7 +56316,7 @@
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="I286" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56106,7 +56325,7 @@
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="I287" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56115,7 +56334,7 @@
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="I288" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56124,7 +56343,7 @@
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="I289" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56133,7 +56352,7 @@
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="I290" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56142,7 +56361,7 @@
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="I291" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56151,7 +56370,7 @@
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
       <c r="I292" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56160,7 +56379,7 @@
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
       <c r="I293" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56169,7 +56388,7 @@
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="I294" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56178,7 +56397,7 @@
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
       <c r="I295" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56187,7 +56406,7 @@
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
       <c r="I296" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56196,7 +56415,7 @@
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
       <c r="I297" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56205,7 +56424,7 @@
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
       <c r="I298" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56214,7 +56433,7 @@
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
       <c r="I299" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56223,7 +56442,7 @@
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
       <c r="I300" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56232,7 +56451,7 @@
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
       <c r="I301" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56241,7 +56460,7 @@
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
       <c r="I302" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56250,7 +56469,7 @@
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
       <c r="I303" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56259,7 +56478,7 @@
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
       <c r="I304" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56268,7 +56487,7 @@
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
       <c r="I305" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56277,43 +56496,39 @@
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
       <c r="I306" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="13"/>
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
       <c r="I307" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="13"/>
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
       <c r="I308" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="13"/>
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
       <c r="I309" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="13"/>
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
       <c r="I310" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56321,7 +56536,7 @@
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
       <c r="I311" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56329,7 +56544,7 @@
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
       <c r="I312" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -56337,7 +56552,7 @@
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
       <c r="I313" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ref="I313:I316" ca="1" si="54">IF(J313 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
     </row>
@@ -56345,7 +56560,7 @@
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
       <c r="I314" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
     </row>
@@ -56353,7 +56568,7 @@
       <c r="C315" s="13"/>
       <c r="D315" s="13"/>
       <c r="I315" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
     </row>
@@ -56361,39 +56576,7 @@
       <c r="C316" s="13"/>
       <c r="D316" s="13"/>
       <c r="I316" s="15" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C317" s="13"/>
-      <c r="D317" s="13"/>
-      <c r="I317" s="15" t="str">
-        <f t="shared" ref="I317:I320" ca="1" si="44">IF(J317 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C318" s="13"/>
-      <c r="D318" s="13"/>
-      <c r="I318" s="15" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C319" s="13"/>
-      <c r="D319" s="13"/>
-      <c r="I319" s="15" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C320" s="13"/>
-      <c r="D320" s="13"/>
-      <c r="I320" s="15" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
     </row>
@@ -56412,157 +56595,293 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B149">
-    <cfRule type="expression" dxfId="124" priority="2">
+  <conditionalFormatting sqref="B3:B19 B21:B145">
+    <cfRule type="expression" dxfId="166" priority="36">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="3">
+    <cfRule type="expression" dxfId="165" priority="37">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="8">
+    <cfRule type="expression" dxfId="164" priority="42">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="9">
+    <cfRule type="expression" dxfId="163" priority="43">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="10">
+    <cfRule type="expression" dxfId="162" priority="44">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="11">
+    <cfRule type="expression" dxfId="161" priority="45">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="17">
+    <cfRule type="expression" dxfId="160" priority="51">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="18">
+    <cfRule type="expression" dxfId="159" priority="52">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="19">
+    <cfRule type="expression" dxfId="158" priority="53">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="20">
+    <cfRule type="expression" dxfId="157" priority="54">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="21">
+    <cfRule type="expression" dxfId="156" priority="55">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="22">
+    <cfRule type="expression" dxfId="155" priority="56">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="23">
+    <cfRule type="expression" dxfId="154" priority="57">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="24">
+    <cfRule type="expression" dxfId="153" priority="58">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="25">
+    <cfRule type="expression" dxfId="152" priority="59">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="26">
+    <cfRule type="expression" dxfId="151" priority="60">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="27">
+    <cfRule type="expression" dxfId="150" priority="61">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="28">
+    <cfRule type="expression" dxfId="149" priority="62">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1048565:G1048576 G25:G1048451">
-    <cfRule type="expression" dxfId="106" priority="4">
-      <formula>IF(I144="",0, G144)  &lt; - 0.05* IF(I144="",0,I144)</formula>
+  <conditionalFormatting sqref="G1048561:G1048576 G26:G1048447">
+    <cfRule type="expression" dxfId="148" priority="38">
+      <formula>IF(I145="",0, G145)  &lt; - 0.05* IF(I145="",0,I145)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="5">
-      <formula>AND(IF(I144="",0, G144)  &gt;= - 0.05* IF(I144="",0,I144), IF(I144="",0, G144) &lt; 0)</formula>
+    <cfRule type="expression" dxfId="147" priority="39">
+      <formula>AND(IF(I145="",0, G145)  &gt;= - 0.05* IF(I145="",0,I145), IF(I145="",0, G145) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6">
-      <formula>AND(IF(I144="",0, G144)  &lt;= 0.05* IF(I144="",0,I144), IF(I144="",0, G144) &gt; 0)</formula>
+    <cfRule type="expression" dxfId="146" priority="40">
+      <formula>AND(IF(I145="",0, G145)  &lt;= 0.05* IF(I145="",0,I145), IF(I145="",0, G145) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="7">
-      <formula>IF(I144="",0,G144)  &gt; 0.05* IF(I144="",0,I144)</formula>
+    <cfRule type="expression" dxfId="145" priority="41">
+      <formula>IF(I145="",0,G145)  &gt; 0.05* IF(I145="",0,I145)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G191">
-    <cfRule type="expression" dxfId="102" priority="29">
+  <conditionalFormatting sqref="G3:G19 G21:G187">
+    <cfRule type="expression" dxfId="144" priority="63">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="30">
+    <cfRule type="expression" dxfId="143" priority="64">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="31">
+    <cfRule type="expression" dxfId="142" priority="65">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="32">
+    <cfRule type="expression" dxfId="141" priority="66">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="33">
+    <cfRule type="expression" dxfId="140" priority="67">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="34">
+    <cfRule type="expression" dxfId="139" priority="68">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="35">
+    <cfRule type="expression" dxfId="138" priority="69">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="36">
+    <cfRule type="expression" dxfId="137" priority="70">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="37">
+    <cfRule type="expression" dxfId="136" priority="71">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="38">
+    <cfRule type="expression" dxfId="135" priority="72">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="39">
+    <cfRule type="expression" dxfId="134" priority="73">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="40">
+    <cfRule type="expression" dxfId="133" priority="74">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G24">
-    <cfRule type="expression" dxfId="12" priority="77">
-      <formula>IF(I118="",0, G118)  &lt; - 0.05* IF(I118="",0,I118)</formula>
+  <conditionalFormatting sqref="G21:G22">
+    <cfRule type="expression" dxfId="132" priority="111">
+      <formula>IF(I132="",0, G132)  &lt; - 0.05* IF(I132="",0,I132)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="78">
-      <formula>AND(IF(I118="",0, G118)  &gt;= - 0.05* IF(I118="",0,I118), IF(I118="",0, G118) &lt; 0)</formula>
+    <cfRule type="expression" dxfId="131" priority="112">
+      <formula>AND(IF(I132="",0, G132)  &gt;= - 0.05* IF(I132="",0,I132), IF(I132="",0, G132) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="79">
-      <formula>AND(IF(I118="",0, G118)  &lt;= 0.05* IF(I118="",0,I118), IF(I118="",0, G118) &gt; 0)</formula>
+    <cfRule type="expression" dxfId="130" priority="113">
+      <formula>AND(IF(I132="",0, G132)  &lt;= 0.05* IF(I132="",0,I132), IF(I132="",0, G132) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="80">
-      <formula>IF(I118="",0,G118)  &gt; 0.05* IF(I118="",0,I118)</formula>
+    <cfRule type="expression" dxfId="129" priority="114">
+      <formula>IF(I132="",0,G132)  &gt; 0.05* IF(I132="",0,I132)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1048452:G1048564">
-    <cfRule type="expression" dxfId="8" priority="85">
-      <formula>IF(I1="",0, G1)  &lt; - 0.05* IF(I1="",0,I1)</formula>
+  <conditionalFormatting sqref="G5:G19">
+    <cfRule type="expression" dxfId="128" priority="192">
+      <formula>IF(I114="",0, G114)  &lt; - 0.05* IF(I114="",0,I114)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="86">
-      <formula>AND(IF(I1="",0, G1)  &gt;= - 0.05* IF(I1="",0,I1), IF(I1="",0, G1) &lt; 0)</formula>
+    <cfRule type="expression" dxfId="127" priority="193">
+      <formula>AND(IF(I114="",0, G114)  &gt;= - 0.05* IF(I114="",0,I114), IF(I114="",0, G114) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="87">
-      <formula>AND(IF(I1="",0, G1)  &lt;= 0.05* IF(I1="",0,I1), IF(I1="",0, G1) &gt; 0)</formula>
+    <cfRule type="expression" dxfId="126" priority="194">
+      <formula>AND(IF(I114="",0, G114)  &lt;= 0.05* IF(I114="",0,I114), IF(I114="",0, G114) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="88">
-      <formula>IF(I1="",0,G1)  &gt; 0.05* IF(I1="",0,I1)</formula>
+    <cfRule type="expression" dxfId="125" priority="195">
+      <formula>IF(I114="",0,G114)  &gt; 0.05* IF(I114="",0,I114)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="124" priority="1">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="2">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="3">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="4">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="5">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="6">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="7">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="8">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="9">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="10">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="11">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="12">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="13">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="14">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="15">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="16">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="17">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="18">
+      <formula>$B20&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="106" priority="19">
+      <formula>IF(I20="",0, G20)  &lt; - 0.05* IF(I20="",0,I20)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="20">
+      <formula>AND(IF(I20="",0, G20)  &gt;= - 0.05* IF(I20="",0,I20), IF(I20="",0, G20) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="21">
+      <formula>AND(IF(I20="",0, G20)  &lt;= 0.05* IF(I20="",0,I20), IF(I20="",0, G20) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="22">
+      <formula>IF(I20="",0,G20)  &gt; 0.05* IF(I20="",0,I20)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="23">
+      <formula>IF(I20="",0, G20)  &lt; - 0.05* IF(I20="",0,I20)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="24">
+      <formula>AND(IF(I20="",0, G20)  &gt;= - 0.05* IF(I20="",0,I20), IF(I20="",0, G20) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="25">
+      <formula>AND(IF(I20="",0, G20)  &lt;= 0.05* IF(I20="",0,I20), IF(I20="",0, G20) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="26">
+      <formula>IF(I20="",0,G20)  &gt; 0.05* IF(I20="",0,I20)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="27">
+      <formula>IF(I20="",0, G20)  &lt; - 0.05* IF(I20="",0,I20)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="28">
+      <formula>AND(IF(I20="",0, G20)  &gt;= - 0.05* IF(I20="",0,I20), IF(I20="",0, G20) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="29">
+      <formula>AND(IF(I20="",0, G20)  &lt;= 0.05* IF(I20="",0,I20), IF(I20="",0, G20) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="30">
+      <formula>IF(I20="",0,G20)  &gt; 0.05* IF(I20="",0,I20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="94" priority="31">
+      <formula>IF(I131="",0, G131)  &lt; - 0.05* IF(I131="",0,I131)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="32">
+      <formula>AND(IF(I131="",0, G131)  &gt;= - 0.05* IF(I131="",0,I131), IF(I131="",0, G131) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="33">
+      <formula>AND(IF(I131="",0, G131)  &lt;= 0.05* IF(I131="",0,I131), IF(I131="",0, G131) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="34">
+      <formula>IF(I131="",0,G131)  &gt; 0.05* IF(I131="",0,I131)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G25">
+    <cfRule type="expression" dxfId="12" priority="249">
+      <formula>IF(I140="",0, G140)  &lt; - 0.05* IF(I140="",0,I140)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="250">
+      <formula>AND(IF(I140="",0, G140)  &gt;= - 0.05* IF(I140="",0,I140), IF(I140="",0, G140) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="251">
+      <formula>AND(IF(I140="",0, G140)  &lt;= 0.05* IF(I140="",0,I140), IF(I140="",0, G140) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="252">
+      <formula>IF(I140="",0,G140)  &gt; 0.05* IF(I140="",0,I140)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="4" priority="93">
-      <formula>SUMIF(G3:G117,"&gt;0")-SUMIF(G3:G117,"&lt;0") &gt; 1</formula>
+    <cfRule type="expression" dxfId="8" priority="281">
+      <formula>SUMIF(G3:G113,"&gt;0")-SUMIF(G3:G113,"&lt;0") &gt; 1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="7" priority="282">
       <formula>IF(I2="",0, G2)  &lt; - 0.05* IF(I2="",0,I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="6" priority="283">
       <formula>AND(IF(I2="",0, G2)  &gt;= - 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="96">
+    <cfRule type="expression" dxfId="5" priority="284">
       <formula>AND(IF(I2="",0, G2)  &lt;= 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="97">
+    <cfRule type="expression" dxfId="4" priority="285">
       <formula>IF(I2="",0,G2)  &gt; 0.05* IF(I2="",0,I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1048448:G1048560">
+    <cfRule type="expression" dxfId="3" priority="286">
+      <formula>IF(I1="",0, G1)  &lt; - 0.05* IF(I1="",0,I1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="287">
+      <formula>AND(IF(I1="",0, G1)  &gt;= - 0.05* IF(I1="",0,I1), IF(I1="",0, G1) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="288">
+      <formula>AND(IF(I1="",0, G1)  &lt;= 0.05* IF(I1="",0,I1), IF(I1="",0, G1) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="289">
+      <formula>IF(I1="",0,G1)  &gt; 0.05* IF(I1="",0,I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -56581,7 +56900,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E3:E94</xm:sqref>
+          <xm:sqref>E3:E90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
@@ -56590,7 +56909,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B3:B149</xm:sqref>
+          <xm:sqref>B3:B145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -56599,7 +56918,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D3:D94</xm:sqref>
+          <xm:sqref>D3:D90</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -56637,49 +56956,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>688</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>678</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>680</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>681</v>
       </c>
       <c r="J1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
     </row>
     <row r="2" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="12" t="s">
         <v>682</v>
       </c>
@@ -56692,9 +57011,9 @@
       <c r="N2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="str">
@@ -65717,49 +66036,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>678</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>679</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>680</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>681</v>
       </c>
       <c r="J1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
     </row>
     <row r="2" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="12" t="s">
         <v>682</v>
       </c>
@@ -65772,9 +66091,9 @@
       <c r="N2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="str">
